--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.285</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.872</v>
+        <v>17.967</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.607</v>
+        <v>-1.076</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.218</v>
+        <v>25.254</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.51</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.99</v>
+        <v>9.051</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.68401350193572</v>
+        <v>4.847762964204993</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.27896748715036</v>
+        <v>14.61662581440324</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.3096058366301</v>
+        <v>19.20782133357269</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.64045539347633</v>
+        <v>-4.890515910157955</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.17753353448914</v>
+        <v>19.59526824218539</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.19965481162024</v>
+        <v>23.41839757590701</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15.89013483412183</v>
+        <v>-2.227451612586929</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.67846122916689</v>
+        <v>34.18973160145215</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.82914001758766</v>
+        <v>35.67368804680753</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38.20635617882355</v>
+        <v>35.20372681940081</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.58838118284551</v>
+        <v>39.96316354220012</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>45.13756004410425</v>
+        <v>43.59383213394072</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26.71774389362671</v>
+        <v>7.812175496332362</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>41.4962129141206</v>
+        <v>30.65246671636168</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>45.57716812816497</v>
+        <v>38.39600172632733</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.56475774192278</v>
+        <v>20.66326347514495</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.36290382438193</v>
+        <v>34.68103836721896</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.5120906688754</v>
+        <v>42.73578851147836</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.33167252605713</v>
+        <v>10.36770398999856</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.01176998951596</v>
+        <v>32.93358521506947</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>38.1713366845792</v>
+        <v>44.49777257102132</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21.74733943345615</v>
+        <v>10.9637329137489</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>38.73184899657126</v>
+        <v>48.39599554965496</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>44.0175388986749</v>
+        <v>64.1364837098519</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>44.13607061955884</v>
+        <v>45.99734134173967</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>48.60248525461506</v>
+        <v>56.2000521015113</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>51.22013577203477</v>
+        <v>63.7890730111762</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.70262725043774</v>
+        <v>22.26146376465785</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.70221061031803</v>
+        <v>62.7929346997157</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>51.84557772010154</v>
+        <v>69.78406024840298</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.13738645328783</v>
+        <v>26.281524046495</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.92255920501596</v>
+        <v>44.25654699353261</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.03118766897809</v>
+        <v>52.00703006185698</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26.87705024876347</v>
+        <v>11.80363161533923</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.52044166652868</v>
+        <v>42.7946997435288</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>48.613520877789</v>
+        <v>51.51709290922831</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.37062328966079</v>
+        <v>13.54841997674915</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.35070104389931</v>
+        <v>62.80690704916709</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>54.59043361593815</v>
+        <v>75.82625826097613</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>55.43660084565006</v>
+        <v>71.08149613938777</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>59.87961699982043</v>
+        <v>80.15804204069086</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>62.48036579532167</v>
+        <v>90.54361557043201</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43.82404613128734</v>
+        <v>31.2036246366054</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>58.82482912403118</v>
+        <v>78.9622287832196</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>62.94267825019972</v>
+        <v>86.92123571001245</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.98076900775316</v>
+        <v>16.00062520741516</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.80009851476353</v>
+        <v>35.5371124378804</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.75008265740066</v>
+        <v>39.29752535939933</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11.03676175387351</v>
+        <v>11.14676178917474</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.83062032401415</v>
+        <v>42.36684791407568</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.75658538748836</v>
+        <v>46.18956825704383</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.2718774367527</v>
+        <v>12.68956208193005</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.28291236750664</v>
+        <v>61.74513770138695</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38.34932065321118</v>
+        <v>61.21644592546274</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.67369254227671</v>
+        <v>63.53772802551639</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.09430441910087</v>
+        <v>72.66347070172743</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.57391059011064</v>
+        <v>71.48511256935818</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.98515912186877</v>
+        <v>18.41220571205303</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>41.96380553784201</v>
+        <v>55.20268077294618</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45.94328130756456</v>
+        <v>62.27082538870444</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.58357632843688</v>
+        <v>16.73806197909649</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.60395460657952</v>
+        <v>38.66164555838903</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37.6656902669995</v>
+        <v>45.08880600648804</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>16.43944767221625</v>
+        <v>7.773289424620874</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.37276603962916</v>
+        <v>36.39626281643426</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.43042589093948</v>
+        <v>46.63984991831821</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.84188930934094</v>
+        <v>9.092153919573168</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>39.04741420260066</v>
+        <v>57.13842530107978</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.24193680728749</v>
+        <v>69.24929773518842</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>44.31358927246737</v>
+        <v>53.28626247821164</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>48.81661679550058</v>
+        <v>66.55003340881309</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>51.36213134059921</v>
+        <v>69.25222970604445</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>32.6847958548599</v>
+        <v>15.06248903232863</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>47.88041019470789</v>
+        <v>66.39896097749836</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>51.91985923438007</v>
+        <v>71.7086388437569</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.10124038974509</v>
+        <v>18.06509828470609</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.10226944660726</v>
+        <v>45.79745824057404</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47.12672144826661</v>
+        <v>51.55158785678931</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.92392091455145</v>
+        <v>6.115634839524194</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.81708144037081</v>
+        <v>45.5952850616904</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>48.80938012166142</v>
+        <v>52.34790439126597</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>32.40173752547913</v>
+        <v>9.017276835506625</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>49.59581990310361</v>
+        <v>70.38099089808527</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>54.74761234403601</v>
+        <v>79.41924617407606</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>55.54862688035847</v>
+        <v>76.18052356633591</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>60.02784664418088</v>
+        <v>89.40250188085209</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>62.55948492741081</v>
+        <v>93.75464066525181</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>43.74955793684072</v>
+        <v>20.38665077591309</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>58.94108530238839</v>
+        <v>82.97940897794471</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>62.95662280069352</v>
+        <v>87.67836821970887</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.12288561416642</v>
+        <v>23.5410926613484</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.94895579887565</v>
+        <v>39.58852087731431</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.87977263891576</v>
+        <v>41.97838189530809</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>11.15095397488034</v>
+        <v>11.9312442208104</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.95772443091458</v>
+        <v>42.59811476835618</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>32.86221905246705</v>
+        <v>44.18169815608947</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.39337942676438</v>
+        <v>13.26889639149313</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.41281699661535</v>
+        <v>61.3014051643499</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>38.46077259797429</v>
+        <v>58.21938449013489</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.80318404895091</v>
+        <v>61.99722898414716</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.22593430819054</v>
+        <v>69.70688100461318</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>45.69894053911617</v>
+        <v>67.96423119608549</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.10874803881542</v>
+        <v>24.38299228819541</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>42.0922133565976</v>
+        <v>55.3142527700703</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>46.05918000148225</v>
+        <v>58.41932651463496</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.82464484839057</v>
+        <v>27.91027111614027</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.85268909901964</v>
+        <v>47.3111837904968</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.89492768284748</v>
+        <v>52.0441615399658</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>16.65433161878104</v>
+        <v>12.60679967407431</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.60197979813478</v>
+        <v>41.73828094275477</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>38.63728987205879</v>
+        <v>49.38482204674962</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>22.06486151102453</v>
+        <v>13.44317945341293</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>39.27977547884524</v>
+        <v>61.55349523298962</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>44.45549419817822</v>
+        <v>70.73629614820261</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>44.54524115110438</v>
+        <v>58.18704130738253</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.0505807050079</v>
+        <v>69.92045169741478</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51.58919800979587</v>
+        <v>71.60815808969538</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.90945535061665</v>
+        <v>26.13692347931029</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>48.1108268971327</v>
+        <v>71.6933200668535</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>52.13770658218269</v>
+        <v>73.15666194308766</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.33762429228528</v>
+        <v>30.6332172860392</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.3469156565954</v>
+        <v>55.67264011172519</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>47.35229184764533</v>
+        <v>60.04802798091426</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.13587804899691</v>
+        <v>12.01277849575395</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>44.0434631185143</v>
+        <v>51.89157359338917</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>49.01443147250697</v>
+        <v>56.42307345830294</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>32.62134945183778</v>
+        <v>14.27504586913735</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>49.8253258300382</v>
+        <v>75.63321503078889</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>54.95878087660355</v>
+        <v>82.20498423122918</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>55.77750513912023</v>
+        <v>82.54709187029393</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>60.25924474325124</v>
+        <v>93.87752038655323</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>62.78438556090917</v>
+        <v>97.56428506539136</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>43.97169341742452</v>
+        <v>33.2478477877283</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>59.16905402671993</v>
+        <v>89.89038897508051</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>63.17249593265079</v>
+        <v>91.44617131129833</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.370418704326045</v>
+        <v>7.901751254702919</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.90926561101719</v>
+        <v>17.69568009259753</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.90710486442846</v>
+        <v>21.32596787501841</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.248654900646049</v>
+        <v>-0.1557381894618111</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.73096086507404</v>
+        <v>23.52558523274043</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.71849631684269</v>
+        <v>26.70509173310113</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.4717648009038</v>
+        <v>2.357350430524935</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.20027669022984</v>
+        <v>37.90801250390514</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36.31763659949171</v>
+        <v>37.79752068673677</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.69161867402402</v>
+        <v>35.86543321839714</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.06193961065682</v>
+        <v>40.06468260477631</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>43.59877380719041</v>
+        <v>46.45367552769129</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.26298219505719</v>
+        <v>20.17227184636495</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39.99140650310652</v>
+        <v>38.57997909103996</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>44.04118246252389</v>
+        <v>46.97022901667874</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15.20877525192</v>
+        <v>18.95582310668509</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30.95028279974474</v>
+        <v>32.65851136777785</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.06582100979161</v>
+        <v>39.9132483308595</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>14.89705572206609</v>
+        <v>10.34080842281979</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>31.522026763582</v>
+        <v>31.82909047436327</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.64610575979408</v>
+        <v>42.99090884597284</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>20.28464528238175</v>
+        <v>10.95200445018368</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.20889609323634</v>
+        <v>47.15331068263065</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>42.4603486943532</v>
+        <v>61.47090818856459</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>42.5757515703786</v>
+        <v>40.39674718158763</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>47.03025078818999</v>
+        <v>50.35956602455751</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.63470770493164</v>
+        <v>60.7898918961255</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.20109210594848</v>
+        <v>27.27052596473594</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.15004692804246</v>
+        <v>62.62934464287135</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>50.26172326816709</v>
+        <v>69.70713230962433</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.7500638255319</v>
+        <v>24.32369096730331</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.47840234505291</v>
+        <v>41.58560830284237</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.55344641577402</v>
+        <v>48.68905560521871</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.40429264966122</v>
+        <v>11.00970223314595</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.99281529571338</v>
+        <v>40.41472518196026</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.05027369132124</v>
+        <v>48.8776855195042</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.87112611459431</v>
+        <v>13.21758073524505</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>47.79072724939138</v>
+        <v>60.75650799166765</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>52.99641316390496</v>
+        <v>72.58680655596005</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>53.8365337629222</v>
+        <v>65.20814352131036</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>58.26772053170914</v>
+        <v>74.32920587426797</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>60.85630244727592</v>
+        <v>87.27303876058313</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42.28335685733686</v>
+        <v>36.28701802508972</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>57.23319282653623</v>
+        <v>78.35491496367989</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>61.31938562222802</v>
+        <v>86.7690950734525</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.75985562665131</v>
+        <v>22.55259937775536</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.3999584499608</v>
+        <v>39.90478249524718</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>35.36466242292649</v>
+        <v>41.85761669775168</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>14.76924464907278</v>
+        <v>11.27931528359948</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.35820421528409</v>
+        <v>44.76557500780392</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36.31001235301664</v>
+        <v>46.41968569719738</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20.02727380104968</v>
+        <v>15.69199702626317</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.85808965610289</v>
+        <v>63.01092174015919</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>41.9423948009356</v>
+        <v>61.40365785532181</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.3166987379427</v>
+        <v>61.96830851799599</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>46.69899715749429</v>
+        <v>67.36476401107707</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>49.22013322299578</v>
+        <v>69.58954209296586</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.79113781747272</v>
+        <v>28.18880030866335</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>45.58007057386841</v>
+        <v>50.45995761888274</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>49.60565346330797</v>
+        <v>55.76045743629983</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.64584043471257</v>
+        <v>30.13262209839558</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.48544745466893</v>
+        <v>51.1955815067342</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>41.56533864346587</v>
+        <v>56.12419481737113</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>20.46201150928606</v>
+        <v>16.46982641767152</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>37.19068754187346</v>
+        <v>48.09280457913793</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>42.27648510784012</v>
+        <v>56.83564277089239</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.88579048874889</v>
+        <v>18.92971590109356</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>42.90925313947356</v>
+        <v>66.95316603570397</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>48.12504122375345</v>
+        <v>78.75160431138299</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>48.24585173092227</v>
+        <v>63.98598515320542</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>52.71150769780391</v>
+        <v>73.60016850999166</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>55.29967482070536</v>
+        <v>79.58225005007428</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>36.77800013097902</v>
+        <v>36.14882359468449</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>51.78561994363822</v>
+        <v>75.41043122544168</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>55.87141197166464</v>
+        <v>78.61828594738644</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.94938691241898</v>
+        <v>31.01586390414495</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.77452116403329</v>
+        <v>55.3524568016946</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>50.81460456739813</v>
+        <v>60.44738180888417</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.73284746710313</v>
+        <v>12.91074128597451</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.42314208908751</v>
+        <v>52.13378711395445</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>52.44313147117451</v>
+        <v>58.5299038821435</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.2321158080136</v>
+        <v>16.73377686832051</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>53.24939415370264</v>
+        <v>75.58292416458941</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>58.42026616668342</v>
+        <v>85.45533262186591</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>59.26492850628149</v>
+        <v>83.69737931855975</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>63.70731363139225</v>
+        <v>92.36403339541043</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>66.27975696108673</v>
+        <v>101.1177171655871</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>47.62090827806797</v>
+        <v>39.55363475751476</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>62.62916242364255</v>
+        <v>85.9618437693817</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>66.6902235831563</v>
+        <v>90.57948376595009</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8.534774987299411</v>
+        <v>16.2382831121178</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.10701510823225</v>
+        <v>36.57709889386835</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.9652041945534</v>
+        <v>38.70365254886083</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>8.506519424479109</v>
+        <v>8.941004129832425</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.05375012427085</v>
+        <v>43.59815515694645</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.87708909810128</v>
+        <v>44.4249850623949</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>13.64067512289275</v>
+        <v>11.66533589530549</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>30.38818648510957</v>
+        <v>64.76450367996308</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.35997689623709</v>
+        <v>61.47697875126387</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.67568691397253</v>
+        <v>59.88811196175568</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>40.02341692052514</v>
+        <v>70.71655885076383</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>42.45962831703918</v>
+        <v>70.07266673013918</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>24.17558576256384</v>
+        <v>17.72434355384438</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>38.89263177506504</v>
+        <v>46.24835155418326</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>42.80104560971756</v>
+        <v>49.65501558844527</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>14.52653373735414</v>
+        <v>24.10974928001814</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.30072410218202</v>
+        <v>48.81841638154465</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>35.2683501535434</v>
+        <v>53.01647459723459</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>14.30999155940552</v>
+        <v>11.75746375536135</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.99925683376708</v>
+        <v>46.42920991058629</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.95190629884402</v>
+        <v>52.9638932822205</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>19.61150837246414</v>
+        <v>13.69724649573842</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>36.55452945527855</v>
+        <v>68.32509680712847</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>41.6517626006511</v>
+        <v>76.82937000614983</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>41.72002839812939</v>
+        <v>60.22157724483317</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>46.15028812787695</v>
+        <v>75.26040545717304</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>48.65083532631269</v>
+        <v>77.65963074492966</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>30.27551707618114</v>
+        <v>26.34884025735825</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>45.21113381824814</v>
+        <v>73.51065796345351</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>49.17792943334659</v>
+        <v>74.62601752697846</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>23.98872403111601</v>
+        <v>24.74328335490369</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.74633216056558</v>
+        <v>53.55434198890022</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.67731858914968</v>
+        <v>57.55125788759692</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.7283704993939</v>
+        <v>9.090854853817735</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>41.38054240245387</v>
+        <v>52.41692673620746</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>46.26807992799787</v>
+        <v>56.02273877672742</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>30.10502848613203</v>
+        <v>12.82558301238415</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>47.03925586590933</v>
+        <v>78.48180431656074</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>52.09458422346934</v>
+        <v>84.72802594619164</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>52.87911350925295</v>
+        <v>80.03004423751985</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>57.28587124671543</v>
+        <v>94.4329748393066</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>59.77354230855626</v>
+        <v>98.66034710360127</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>41.26532200571298</v>
+        <v>28.78023243608833</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>56.19960733416741</v>
+        <v>85.3412033741849</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>60.14266008907945</v>
+        <v>86.24345713018057</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3.181465097313801</v>
+        <v>-0.3645753467034858</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>18.66543553429616</v>
+        <v>6.40471646249016</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.60784583762516</v>
+        <v>11.4735648681603</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>3.041726900055448</v>
+        <v>-6.531434459024819</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.49389408419488</v>
+        <v>13.52265013371202</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.40670505928261</v>
+        <v>17.36756925920257</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.158676467743842</v>
+        <v>-5.126411294707605</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.82037298030866</v>
+        <v>27.8345996301933</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.87719477725726</v>
+        <v>28.19132899660845</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>30.1939748442649</v>
+        <v>29.25525150507538</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.53548507476097</v>
+        <v>36.37066462794236</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>37.00755785747496</v>
+        <v>36.95604596164104</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.75593721527305</v>
+        <v>2.003560551898534</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.43562380120305</v>
+        <v>21.6585318365312</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>37.41139749144563</v>
+        <v>28.31075175149316</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9.207557097798354</v>
+        <v>14.94342780971794</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.8989741097592</v>
+        <v>26.34537914120547</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.95587811437402</v>
+        <v>34.44216319286021</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>8.885313686356607</v>
+        <v>6.232824045829307</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.48478867088805</v>
+        <v>25.84387090983201</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.53207706598391</v>
+        <v>36.5713273473683</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.17057299483564</v>
+        <v>7.449275133752355</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>31.03315438834916</v>
+        <v>41.83530870129049</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.22061938734881</v>
+        <v>55.52041408170761</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.28230136769756</v>
+        <v>38.07180454630999</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.70777793411064</v>
+        <v>50.04337034612998</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>43.24597287987331</v>
+        <v>54.0373150384615</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>24.8958468669251</v>
+        <v>15.84007224585743</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.79757533242532</v>
+        <v>52.23480381332494</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>43.83504623042698</v>
+        <v>58.39072068396003</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.98395504892363</v>
+        <v>23.42663057004309</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.66091489449106</v>
+        <v>40.39945576352274</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>39.68054191605808</v>
+        <v>48.15059961040315</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>19.62632390222147</v>
+        <v>11.94580982891488</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>36.19120240616743</v>
+        <v>41.87281941998815</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>41.17265237140199</v>
+        <v>49.67726677607637</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>24.98910824649109</v>
+        <v>14.96045419634409</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>41.84531666427236</v>
+        <v>62.30532353243662</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>46.9899277767763</v>
+        <v>73.28490923586487</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>47.77208154284594</v>
+        <v>68.45171784687683</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>52.17392183453548</v>
+        <v>80.09817322102872</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>54.69826112983449</v>
+        <v>86.61552373005843</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>36.21331451151951</v>
+        <v>30.01320139032872</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>51.1141262751043</v>
+        <v>76.35198389492298</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>55.12734301760214</v>
+        <v>83.69237694423988</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>9.727107100507286</v>
+        <v>-0.5504507891968551</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.48023893113047</v>
+        <v>4.588101670131142</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.50889851177658</v>
+        <v>9.855362155683498</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>9.671492529195614</v>
+        <v>-7.961875964151158</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.38516928868768</v>
+        <v>10.25345814577934</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>31.39662426847016</v>
+        <v>14.3685639237627</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>14.92367127311756</v>
+        <v>-7.574462357877263</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>31.87715299668992</v>
+        <v>21.66293699984168</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>37.02685133018048</v>
+        <v>24.24258458326431</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.37256760062571</v>
+        <v>17.81919761482972</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.79065242500377</v>
+        <v>24.15569824041818</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>44.34149608331197</v>
+        <v>28.28651960250987</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.75829757929439</v>
+        <v>-0.1341134807299333</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>40.67027125018263</v>
+        <v>9.255946331518107</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>44.73832543701153</v>
+        <v>15.30770051293475</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>15.62910474418472</v>
+        <v>1.029071932974706</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>31.58589166560931</v>
+        <v>9.487767804038487</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>36.73073376047009</v>
+        <v>18.00538610527837</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>15.37952404417628</v>
+        <v>-8.067788232974163</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>32.23619867286389</v>
+        <v>7.681653186724294</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>37.38318023890217</v>
+        <v>18.92727459061534</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>20.79871638034691</v>
+        <v>-9.823873811202088</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>37.94904262648872</v>
+        <v>19.4756697620192</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.2313499405399</v>
+        <v>35.89925083938304</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>43.31991698117871</v>
+        <v>11.66802891476199</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>47.82242474414731</v>
+        <v>23.41039334364003</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>50.4407840810803</v>
+        <v>32.01247386826286</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>31.76318711734566</v>
+        <v>-1.525601910206387</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>46.89678517964627</v>
+        <v>24.3456275260027</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>51.02588731445746</v>
+        <v>28.13125771553864</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.16808230566577</v>
+        <v>7.809648369573456</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>41.10986919959856</v>
+        <v>20.09261516164945</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>46.2161112249142</v>
+        <v>29.78411607543676</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.89640681556944</v>
+        <v>-5.850843343831723</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>42.71506055808656</v>
+        <v>18.50697771439552</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>47.7963938393221</v>
+        <v>28.41435876455383</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>31.39313233335194</v>
+        <v>-5.764076061551417</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>48.5367645014928</v>
+        <v>34.87248025168854</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>53.77538072040529</v>
+        <v>50.66625447418726</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>54.59415544099139</v>
+        <v>37.63293223205137</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>59.07305609067307</v>
+        <v>48.99054529260256</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>61.67708361423507</v>
+        <v>61.23158796437993</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>42.8595085328781</v>
+        <v>7.885322763523266</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>57.99296894667843</v>
+        <v>41.43130039619358</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>62.09789672163876</v>
+        <v>47.96733731695689</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>12.25964301276563</v>
+        <v>16.66383793459109</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.9925663179318</v>
+        <v>33.01046357060484</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>32.91610604620823</v>
+        <v>39.10296635683626</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>12.39852894267885</v>
+        <v>11.39466489545207</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.11512954102701</v>
+        <v>44.71256548178722</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>34.00427749368458</v>
+        <v>47.56444974462896</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.60736938061055</v>
+        <v>13.41021631340839</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.52986616418229</v>
+        <v>64.27965130309865</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>39.56730934252541</v>
+        <v>64.14254395939953</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>39.93087353799997</v>
+        <v>67.2150408397183</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>44.32364400507359</v>
+        <v>74.75528582163746</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>46.78581997904855</v>
+        <v>73.15716556271788</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.29932170237533</v>
+        <v>25.02957707088872</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>43.1772365709748</v>
+        <v>57.59541367443653</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>47.1435783031905</v>
+        <v>65.49387260750005</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.9729908618903</v>
+        <v>13.97340093456008</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.90778020526189</v>
+        <v>33.56540257124969</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>38.94159925466749</v>
+        <v>41.19037347355489</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>17.91231515085932</v>
+        <v>2.592371336585746</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.76962073091241</v>
+        <v>34.04932158679783</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>39.78913813646614</v>
+        <v>42.36158266203695</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>23.2899079874935</v>
+        <v>4.107208865729451</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.40763661120116</v>
+        <v>54.66908611032632</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>45.57156519100246</v>
+        <v>66.28904352759197</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>45.68190820907886</v>
+        <v>51.63688788673427</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>50.15744261333909</v>
+        <v>62.61499967354531</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>52.68466562166358</v>
+        <v>64.30172646962599</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.10856191170061</v>
+        <v>17.82815060000756</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>49.20501056024231</v>
+        <v>65.23200218117044</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>53.22984732228613</v>
+        <v>69.75402938103163</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.462560395499</v>
+        <v>17.78341414935703</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.37932196760497</v>
+        <v>42.70021848675192</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>48.37577525114433</v>
+        <v>49.87703716454361</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.37191648728347</v>
+        <v>4.301548917049121</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.19059678434918</v>
+        <v>45.79909005675229</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>50.14424452543603</v>
+        <v>50.95106555803112</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.82271047981899</v>
+        <v>7.06638084935911</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>50.93028774118554</v>
+        <v>70.23849948848705</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>56.05145017098222</v>
+        <v>79.03064853721644</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>56.88798309568543</v>
+        <v>76.84148413992203</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>61.33956340972687</v>
+        <v>87.293685312889</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>63.85301845506723</v>
+        <v>90.88775275845937</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>45.14444351505272</v>
+        <v>26.07318680241172</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>60.2384208404769</v>
+        <v>83.80135440859245</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>64.2388126081332</v>
+        <v>88.52721357408497</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>1.324000265440731</v>
+        <v>1.779891568991776</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.78965810167276</v>
+        <v>6.74872689596457</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.75401651524551</v>
+        <v>12.98317124072013</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1.126768871563442</v>
+        <v>-6.04203052609024</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>17.54700262836854</v>
+        <v>10.27082706385223</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.48924565170659</v>
+        <v>16.41075351793272</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>6.240713164451076</v>
+        <v>-5.389047604530486</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.8791845324481</v>
+        <v>22.6721509769527</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>27.96111033452212</v>
+        <v>26.24597873587918</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.22084732299324</v>
+        <v>22.84401013922518</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.5640724224215</v>
+        <v>28.71897442943312</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>35.04952157575224</v>
+        <v>32.89129114287682</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>16.80012689796841</v>
+        <v>2.731775903187373</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.48308919977877</v>
+        <v>18.14077470378236</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>35.46987178872534</v>
+        <v>25.38633374772001</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>7.179311016365055</v>
+        <v>7.350993997931528</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.85065143879751</v>
+        <v>15.85529419651214</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.92983896377641</v>
+        <v>25.96392338927315</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>6.801168709282997</v>
+        <v>-2.455646326322789</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>23.36704661540146</v>
+        <v>12.48511121417404</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.44371589249452</v>
+        <v>26.08963056476127</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>12.08098719908861</v>
+        <v>-2.198078676865929</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.91862990956214</v>
+        <v>26.05851608685136</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.13164267804716</v>
+        <v>43.86681127329923</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>34.13811441545995</v>
+        <v>20.5789067320295</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>38.56449398269693</v>
+        <v>31.63644316717476</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>41.11662000359607</v>
+        <v>39.90120353744864</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.77046231283998</v>
+        <v>5.185280664483759</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.67268075273153</v>
+        <v>35.74584619371085</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>41.72201628157914</v>
+        <v>43.58583832006143</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.91770498432985</v>
+        <v>15.47711235598785</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.57295825471284</v>
+        <v>29.15512108911257</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>37.61719586291593</v>
+        <v>39.24319015281144</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>17.49326571290121</v>
+        <v>2.297634097278394</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.02244290967413</v>
+        <v>27.26615560561349</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.03598755246607</v>
+        <v>38.12610144144067</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>22.85190498102745</v>
+        <v>4.250578367535088</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>39.68141154181106</v>
+        <v>45.05663464541864</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>44.85388958125122</v>
+        <v>60.68220900057919</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>45.57869972230927</v>
+        <v>49.53566158279735</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>49.98223145476302</v>
+        <v>60.13331176710558</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>52.5211351080801</v>
+        <v>72.46927990702427</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>34.04047376722299</v>
+        <v>18.29803306848591</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>48.94021353804124</v>
+        <v>58.03750068876401</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>52.96771932290712</v>
+        <v>66.99598765809093</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>7.859109419334565</v>
+        <v>-5.735664252342769</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.54517967237259</v>
+        <v>6.26893885291172</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.42452332005472</v>
+        <v>6.75459786965256</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>7.759864852244544</v>
+        <v>-13.98944873336121</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.41871862614936</v>
+        <v>9.578585113698427</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.27155062334809</v>
+        <v>10.14180267219273</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.93538131460536</v>
+        <v>-14.98209802767745</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.80288228554329</v>
+        <v>24.84646340628275</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.79882456248558</v>
+        <v>20.32070461360665</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>35.10433374987683</v>
+        <v>21.70865119326523</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>39.48758272334275</v>
+        <v>26.58837865684554</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>41.93985262241442</v>
+        <v>26.49054888119842</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>23.5251076715018</v>
+        <v>-8.5334553358805</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.3721737455619</v>
+        <v>13.97370726204536</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>42.29333125866685</v>
+        <v>13.73142908019482</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>13.80680345941469</v>
+        <v>20.6883329375474</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.69508600256772</v>
+        <v>37.10753204561637</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.68510132393</v>
+        <v>39.95135143312775</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>13.51845817156546</v>
+        <v>9.312936762625572</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.31938023758704</v>
+        <v>32.87295699175534</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.30221212072677</v>
+        <v>39.43422519640897</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>18.86120132696912</v>
+        <v>8.532700459769661</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>35.92463424089915</v>
+        <v>50.22875852362431</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>41.04742332114574</v>
+        <v>57.50285599221915</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>41.10491473713864</v>
+        <v>44.30449042983291</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.57053801121137</v>
+        <v>53.42704397934189</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>48.08782277262522</v>
+        <v>56.36293193993701</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.58188080036506</v>
+        <v>17.79825889253037</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>44.64689928603411</v>
+        <v>57.19017102929983</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>48.6277358513227</v>
+        <v>55.56385478732109</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.31284869705052</v>
+        <v>26.85926438941324</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.18394943606813</v>
+        <v>48.68946473954576</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.13782985227425</v>
+        <v>51.30935596698957</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>23.98256679708869</v>
+        <v>11.55124933133847</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>40.74528467123834</v>
+        <v>45.6682522668858</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.66433299940974</v>
+        <v>49.25050554756864</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.40145436609302</v>
+        <v>12.76648326456284</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>46.45545368287276</v>
+        <v>67.39717413459003</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>51.5367970334292</v>
+        <v>72.33583160239901</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>52.31501738849986</v>
+        <v>71.6964441285417</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>56.75749023450598</v>
+        <v>80.79368182512486</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>59.26200051637065</v>
+        <v>85.60630928023731</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>40.62215246015955</v>
+        <v>27.71534321576967</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>55.68442102136515</v>
+        <v>78.34680399106917</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>59.64236253689953</v>
+        <v>76.56284924838054</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1.806788292829044</v>
+        <v>5.019281241458476</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.28041905199355</v>
+        <v>9.684841437824833</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.19158417575248</v>
+        <v>13.14821003375637</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1.575488249084703</v>
+        <v>-1.957822190887764</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.01041084986829</v>
+        <v>13.87854520243365</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.89711691844136</v>
+        <v>17.33759332934521</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>6.703773146405538</v>
+        <v>-1.1210498997314</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.35367657598401</v>
+        <v>27.74586656489847</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.38142186199471</v>
+        <v>26.74181473254133</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.67674361658547</v>
+        <v>27.96462977287065</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.02048464513086</v>
+        <v>31.93739926314719</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.48399576017589</v>
+        <v>34.12135241149007</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>17.24985645052802</v>
+        <v>8.440247008348724</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.93311192056203</v>
+        <v>20.85402106910876</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.87836008014684</v>
+        <v>25.83938696876548</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>7.396525589602245</v>
+        <v>2.014341942973989</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.07353048241541</v>
+        <v>9.301066074258575</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.0982272850503</v>
+        <v>15.5299329913028</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>6.975267149722242</v>
+        <v>-7.251967492441803</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.55308642818953</v>
+        <v>6.001193620970202</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.57256933620838</v>
+        <v>15.97012453384172</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>12.26752499750051</v>
+        <v>-7.609844283232587</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.11430268229685</v>
+        <v>20.35986786351369</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.27184352829371</v>
+        <v>31.99551921849629</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.31483551553761</v>
+        <v>16.04550388359771</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.74088175033022</v>
+        <v>24.70146568104703</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.2700916356351</v>
+        <v>29.84368824833264</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>22.94340169706896</v>
+        <v>1.50232872077844</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.84425603311099</v>
+        <v>28.01792484735181</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>41.85094565487077</v>
+        <v>31.88179110525342</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.21553863549862</v>
+        <v>14.21643428133992</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.87673882799454</v>
+        <v>27.37672927736451</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.86430472008443</v>
+        <v>33.08288760067326</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>17.74986787130356</v>
+        <v>1.297228080591726</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.29145685743408</v>
+        <v>25.55595014159828</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.24631245397198</v>
+        <v>32.27413280833586</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>23.12333701673133</v>
+        <v>3.215937258569728</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.9624369061768</v>
+        <v>44.76784934605611</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>45.07727356053076</v>
+        <v>53.57945777218008</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>45.84211379426745</v>
+        <v>50.471492767409</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>50.24503640711167</v>
+        <v>58.77943053488549</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>52.76115761636476</v>
+        <v>65.95682685838325</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>34.29906366338616</v>
+        <v>19.2141005154878</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>49.19736987441454</v>
+        <v>56.1363973899248</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>53.1799690775559</v>
+        <v>59.90281711666181</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2.022555343947623</v>
+        <v>-1.795581076276061</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.3158439230801</v>
+        <v>-1.613480365262898</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.17715919648765</v>
+        <v>-1.507483734438534</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2.376878677184234</v>
+        <v>-8.18575030324045</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.91699207743908</v>
+        <v>1.147440873041933</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.75405975340726</v>
+        <v>2.165182189220975</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>2.681902680931646</v>
+        <v>-7.635599943317384</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.1858760796835</v>
+        <v>13.55348908491088</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.16268157513735</v>
+        <v>8.189918696574995</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.45106120885759</v>
+        <v>11.01933394257886</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.75645178285735</v>
+        <v>12.30528080702435</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.20028679180475</v>
+        <v>13.51855894549697</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>13.14049256174303</v>
+        <v>-1.553079020284127</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.70213636422118</v>
+        <v>2.041499670091003</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>31.60472035052097</v>
+        <v>4.11970490050199</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>3.718759964637883</v>
+        <v>-1.049052707292514</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.26028525847624</v>
+        <v>1.574688180980463</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.23394447237557</v>
+        <v>4.321810805572358</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.18058343612287</v>
+        <v>-8.994582714875786</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.61771498838439</v>
+        <v>-2.389510670726889</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>24.58635252102584</v>
+        <v>4.983002772654903</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.401944918638357</v>
+        <v>-9.75725625352403</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.10276164055688</v>
+        <v>10.53013304648626</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.20799841310583</v>
+        <v>17.25287506051966</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.24704694581157</v>
+        <v>4.038941509160555</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.63456035344137</v>
+        <v>10.03430734174599</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>37.14338476862599</v>
+        <v>13.99135359935365</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>18.98947953336081</v>
+        <v>-3.989759769842447</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.76816705322437</v>
+        <v>13.34854735670895</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>37.73167871363093</v>
+        <v>14.18908193495485</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.47588325885263</v>
+        <v>13.21574648054817</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.00207704558384</v>
+        <v>21.31348192126585</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.93905303834421</v>
+        <v>24.01308146216973</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>13.88259626835487</v>
+        <v>0.8566091105921778</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.28459416144003</v>
+        <v>18.22020584919359</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>35.18902740907136</v>
+        <v>22.79931150033251</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>19.18597413481562</v>
+        <v>2.974369312759894</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.87943310258115</v>
+        <v>36.2831697811914</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>40.94256202485099</v>
+        <v>40.94836710532373</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>41.69659168905149</v>
+        <v>39.73102874011143</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>46.06103765009538</v>
+        <v>45.71791498663505</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>48.55746533202149</v>
+        <v>51.70635640592185</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.26846794771574</v>
+        <v>15.40491752286515</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>45.04460394625988</v>
+        <v>42.66685163506322</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>48.98455913243097</v>
+        <v>43.89027966901541</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.6727046419978</v>
+        <v>17.98963381254619</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.42160866517247</v>
+        <v>25.91248483707556</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.49724828571391</v>
+        <v>31.15906786312086</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>10.60467829653041</v>
+        <v>6.846991643329421</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.3115283084947</v>
+        <v>28.96606251018004</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.37155777566808</v>
+        <v>32.40025954818823</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>15.90083906903147</v>
+        <v>9.952658440579359</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>32.85525247614371</v>
+        <v>43.81261487223581</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>38.05140754649477</v>
+        <v>45.22290272720822</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.42045959864407</v>
+        <v>47.46125448623992</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>42.84656686406025</v>
+        <v>50.11986128766516</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>45.4096590572119</v>
+        <v>54.30891616979021</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.80627546198899</v>
+        <v>27.36513401742495</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>41.73265429447262</v>
+        <v>44.19713538978409</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>45.84329881376771</v>
+        <v>53.18121571611495</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>16.42014226943743</v>
+        <v>10.05641401648107</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>32.37454215476993</v>
+        <v>21.40363436520711</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>37.56791921660091</v>
+        <v>29.23447151767538</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.1578521256939</v>
+        <v>-2.480017966274982</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.00922002752701</v>
+        <v>17.09688134946457</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>38.20648517522299</v>
+        <v>27.10911418780772</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>21.61968525698282</v>
+        <v>-1.485744897405493</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>38.77258446975264</v>
+        <v>32.41911444072825</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>44.10303276143762</v>
+        <v>46.92367516268358</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>44.21140261156549</v>
+        <v>31.98669881728985</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>48.72263137094551</v>
+        <v>39.55970866400703</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>51.35412270335053</v>
+        <v>46.85693174943434</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>32.65447089495225</v>
+        <v>16.1051500665149</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>47.80400342368697</v>
+        <v>48.32452303732377</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>51.97676100035456</v>
+        <v>55.38163333125662</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>26.15437122973985</v>
+        <v>21.6023267706279</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.09464468927311</v>
+        <v>37.07795827374211</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>47.24851003041052</v>
+        <v>45.11492753671625</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.87623003814105</v>
+        <v>5.398105663033295</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>43.69034663378908</v>
+        <v>33.60802911652415</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>48.82114351704127</v>
+        <v>41.42678381866376</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>32.41742919754093</v>
+        <v>7.706609734024074</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>49.56481728269884</v>
+        <v>53.50297974821113</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>54.85026521843783</v>
+        <v>66.00912570190728</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>55.6948044688493</v>
+        <v>64.06568107633662</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>60.18213340371699</v>
+        <v>70.51334294965925</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>62.79751615494541</v>
+        <v>81.04631550557822</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>43.95774039481661</v>
+        <v>31.62582929999506</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>59.10702837627685</v>
+        <v>71.2815242855596</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>63.25495917023692</v>
+        <v>80.218466854543</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>8.379216013169849</v>
+        <v>21.81476598026065</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.94328816606162</v>
+        <v>37.25455418367362</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.84800892890174</v>
+        <v>41.20934724452137</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>8.309511841224676</v>
+        <v>13.08549499521913</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.83030139220231</v>
+        <v>40.93364370491726</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.7148560977977</v>
+        <v>45.23388915248832</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.47043664579732</v>
+        <v>16.08034705820477</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.20863309114857</v>
+        <v>58.05039900597508</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>35.23015363204674</v>
+        <v>58.56486440640477</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>35.52591764393723</v>
+        <v>61.48728172350577</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>39.88479233277182</v>
+        <v>68.33835650102226</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>42.34388552036532</v>
+        <v>69.62225647783411</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.03010273078654</v>
+        <v>23.39840146027233</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>38.79134087346525</v>
+        <v>55.19858813110629</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>42.73008765342647</v>
+        <v>61.58671673653053</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>13.91233211368738</v>
+        <v>15.84653282317338</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.67651691576626</v>
+        <v>33.58221585651522</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.69285736368554</v>
+        <v>40.44299656415286</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>13.65045648986794</v>
+        <v>4.693099193988008</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.31078548768235</v>
+        <v>29.62271044548944</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>35.3263913101602</v>
+        <v>40.4865400816242</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>18.97517626987513</v>
+        <v>6.597769829478683</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>35.90701886706682</v>
+        <v>47.46624844427033</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>41.05637454424299</v>
+        <v>60.67785535235704</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.10211939493381</v>
+        <v>45.44024987719767</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>45.5424993070564</v>
+        <v>56.59350409738487</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.06725185522139</v>
+        <v>61.51814335103775</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.66394448615863</v>
+        <v>13.33698223820851</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>44.63996149954145</v>
+        <v>58.67504398263812</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>48.63915663453761</v>
+        <v>64.1365317390257</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>23.36884184154776</v>
+        <v>18.7741523067913</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.11386399781205</v>
+        <v>42.09109949673076</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.09470317579353</v>
+        <v>48.60017554119283</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>24.05869033728891</v>
+        <v>4.151118576913309</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.67899061783641</v>
+        <v>39.6779461579343</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>45.6316853164923</v>
+        <v>47.44880152899965</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.45969315011821</v>
+        <v>7.792250318485959</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>46.38022715987468</v>
+        <v>61.72089870482027</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>51.48863991499127</v>
+        <v>72.3547581191613</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>52.25371113091197</v>
+        <v>69.48561937907103</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>56.67114404851741</v>
+        <v>80.61644530628941</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>59.18237201309624</v>
+        <v>87.88874647867608</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>40.64736409685768</v>
+        <v>20.37900951354966</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>55.61865333637532</v>
+        <v>76.35312560360926</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>59.59542105393092</v>
+        <v>81.93584152082134</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>15.18753607066324</v>
+        <v>18.21536287565248</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.96066663269078</v>
+        <v>33.29246784378093</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.97110391032719</v>
+        <v>37.63085788421874</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>15.30753287252937</v>
+        <v>9.705914682736978</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>32.03643840298872</v>
+        <v>40.51316196270925</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>37.0332524116461</v>
+        <v>43.30279264869613</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>20.61382618806498</v>
+        <v>12.56878516221063</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>37.58758941508648</v>
+        <v>57.86843097784639</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>42.71740691934677</v>
+        <v>58.44848691947003</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>43.12843989433781</v>
+        <v>59.86054762709374</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>47.54691350682546</v>
+        <v>65.25272603418254</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>50.08316399495405</v>
+        <v>66.30720834175368</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.50821703461531</v>
+        <v>21.38012853982226</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.42891727530734</v>
+        <v>51.08484567682952</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>50.49365568471865</v>
+        <v>60.02385748452902</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>20.89304569486824</v>
+        <v>19.56259660891785</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.86587741529213</v>
+        <v>38.17903618084024</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>41.99173840386041</v>
+        <v>45.29485394404215</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>20.81257295971636</v>
+        <v>8.476458014030488</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>37.68027160305633</v>
+        <v>36.85164466689041</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.81156363151661</v>
+        <v>46.62748118788717</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.28579842354175</v>
+        <v>9.277925711296479</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>43.45221218010882</v>
+        <v>54.77470449670817</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>48.71393746843615</v>
+        <v>68.8502755111159</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>48.86767259994545</v>
+        <v>52.68529311720103</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>53.36968929947578</v>
+        <v>62.93473993061774</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>55.97350362045302</v>
+        <v>67.74974688899466</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>37.30651351147389</v>
+        <v>19.99422113479837</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>52.44611067156805</v>
+        <v>66.53813544189897</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>56.57113689698888</v>
+        <v>73.26050737664288</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>30.31819889128051</v>
+        <v>22.50962754859104</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>46.27542231542418</v>
+        <v>45.1391013677203</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>51.36096311239538</v>
+        <v>51.9709961055293</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.21418050528426</v>
+        <v>7.557950738022061</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.04250582739641</v>
+        <v>44.44460200678505</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>53.10731916482921</v>
+        <v>51.37134075099887</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>36.76277830957538</v>
+        <v>9.402390289944197</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>53.92196433202142</v>
+        <v>66.66541693335093</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.13807588518027</v>
+        <v>78.04197763200428</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>60.02272377512505</v>
+        <v>75.25496890302686</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>64.50118400041559</v>
+        <v>84.44263923688955</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>67.08847187881764</v>
+        <v>91.67242350434454</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>48.28435463170572</v>
+        <v>25.73303595837836</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>63.42388045816745</v>
+        <v>80.14559792039297</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>67.52331650169009</v>
+        <v>87.51157698702896</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>0.7513590312947223</v>
+        <v>23.40086366659979</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>17.17345491587655</v>
+        <v>36.29720650742188</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>22.38560291678709</v>
+        <v>39.68852637772046</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>0.5479913866302795</v>
+        <v>23.98195602535536</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>17.97450854290732</v>
+        <v>52.6749799005574</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.16519520491214</v>
+        <v>54.70233836815369</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>6.085661138704872</v>
+        <v>18.89180881871717</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.75879485975798</v>
+        <v>60.52976033966873</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.09806623243808</v>
+        <v>59.94540021952564</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.56419807512999</v>
+        <v>63.1367679474413</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.17272782381117</v>
+        <v>65.42009884581636</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>36.82105519590687</v>
+        <v>67.4523504564187</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>17.54278629747483</v>
+        <v>30.56041381029572</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.08662101388478</v>
+        <v>52.59112988616887</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.31295856556419</v>
+        <v>63.84009849818433</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>6.873492082208692</v>
+        <v>22.51448098837786</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.50401411046347</v>
+        <v>38.65593796127787</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.83656526356798</v>
+        <v>44.93239512761475</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>6.468073070854313</v>
+        <v>22.9550089362465</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.03983680399182</v>
+        <v>48.06913606902673</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.37015621515216</v>
+        <v>57.40939284375942</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>12.18026215875044</v>
+        <v>13.59930405062029</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.05428619156963</v>
+        <v>55.07598671060929</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>35.53126720223604</v>
+        <v>68.01606415009083</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>35.73036798002617</v>
+        <v>53.33163187996594</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>40.4257734016997</v>
+        <v>60.46285406822737</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>43.14458588840266</v>
+        <v>66.05651206414528</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.76642090847569</v>
+        <v>26.18243545452457</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>39.53884590261867</v>
+        <v>64.38877133347385</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>43.82873364936744</v>
+        <v>73.43419824093574</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>17.09362463486806</v>
+        <v>26.60794472606831</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.70921458254162</v>
+        <v>46.26001059639022</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>39.00162154020344</v>
+        <v>52.49151614204875</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>17.70703875755173</v>
+        <v>22.92384159438241</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>35.23848207925873</v>
+        <v>55.81689228042991</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>40.50140106034628</v>
+        <v>62.582435559785</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>23.50454858534017</v>
+        <v>14.98124976370464</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>41.37251876965026</v>
+        <v>67.68846588282845</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>46.8037908091137</v>
+        <v>78.36320243985627</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.76161883116484</v>
+        <v>77.81636394933197</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>52.43375890552204</v>
+        <v>83.37858691248131</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>55.13673912565443</v>
+        <v>92.11217249302145</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.61145088854983</v>
+        <v>34.0399244746708</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>51.38395567415039</v>
+        <v>78.79459835621158</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>55.64830661934127</v>
+        <v>89.64192746982836</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>11.31044598804796</v>
+        <v>14.91360762600361</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.06967079604106</v>
+        <v>31.12604961640948</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.03547205877043</v>
+        <v>36.06757656399354</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>11.37515677890891</v>
+        <v>7.632207245298947</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.09271200875348</v>
+        <v>36.2566785931203</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>33.0420452252826</v>
+        <v>40.92638244660021</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>16.62485087207821</v>
+        <v>8.790296672043713</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>33.57447847149857</v>
+        <v>53.57718772709511</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>38.66059907412409</v>
+        <v>54.86388409184302</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.00664980564514</v>
+        <v>58.01607036686904</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.4202227736457</v>
+        <v>62.79631588825963</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>45.91849134262723</v>
+        <v>65.76209525412763</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>27.36931658621014</v>
+        <v>15.89900663968389</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>42.29681022393893</v>
+        <v>48.24534328163234</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>46.30393584476353</v>
+        <v>57.57088815474786</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>16.87905321599113</v>
+        <v>10.67308668873885</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.83778764406851</v>
+        <v>29.54346827583742</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>37.91613431220608</v>
+        <v>37.21390202850311</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>16.74573061561198</v>
+        <v>0.05444645545698634</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.60219687801308</v>
+        <v>26.41989045100179</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>38.68265822935737</v>
+        <v>37.34990848736886</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>22.16137434852651</v>
+        <v>0.1025028544673496</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>39.30380910287096</v>
+        <v>44.10663324896301</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>44.51888601502543</v>
+        <v>58.32743163414592</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>44.61226188785884</v>
+        <v>43.60554275950234</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>49.10794985690006</v>
+        <v>52.94464571127246</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>51.67259510101374</v>
+        <v>59.39842061074363</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>33.03507249050762</v>
+        <v>7.95158830286049</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>48.17849341235261</v>
+        <v>53.86555580623035</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>52.24605418639605</v>
+        <v>62.07364909097116</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.28464867730921</v>
+        <v>13.177810968229</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>42.22400740726913</v>
+        <v>36.95485288573063</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>47.26665031990534</v>
+        <v>44.67072937247904</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>27.11511758635446</v>
+        <v>-0.9903126202202763</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.92962034400254</v>
+        <v>35.25337084513687</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>48.94802740608183</v>
+        <v>43.51454818218623</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>32.60539863163476</v>
+        <v>0.4464312878684389</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>49.73631447384405</v>
+        <v>56.86239379401668</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>54.91037731381443</v>
+        <v>68.98396425927071</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>55.73011959684433</v>
+        <v>66.5769366521255</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>60.20319816866726</v>
+        <v>75.54673320142861</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>62.75388086637288</v>
+        <v>84.91908664527519</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>43.98294228116023</v>
+        <v>14.05961717958589</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>59.12220809728301</v>
+        <v>69.79409051910282</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>63.16780728115015</v>
+        <v>78.86421676126064</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>7.085305546849266</v>
+        <v>7.898793526394105</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.37648784822274</v>
+        <v>14.27996128159909</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.32277571478404</v>
+        <v>19.76134723846871</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>6.987024281447027</v>
+        <v>-3.097182417027721</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.21096847480923</v>
+        <v>17.76492293408628</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.14523402155088</v>
+        <v>22.2123796780932</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>12.10823992240134</v>
+        <v>0.6397904800192755</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.56821044050627</v>
+        <v>32.35133866913405</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>33.63224688497814</v>
+        <v>34.41353147279175</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.94836313512091</v>
+        <v>32.30530647292038</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.24549712624582</v>
+        <v>35.48495373111236</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.75568922834253</v>
+        <v>41.10771951189388</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.6644127058473</v>
+        <v>6.128796439142196</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>37.16737858272892</v>
+        <v>23.53717419086191</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>41.18092126456072</v>
+        <v>33.09698414897805</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>12.97547916312442</v>
+        <v>16.57450485821436</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.46926266324745</v>
+        <v>27.46707850474549</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>33.53318704070739</v>
+        <v>36.02351940117815</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>12.69798904700985</v>
+        <v>5.243518975577377</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.06547826635934</v>
+        <v>24.75806566304231</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>34.13595149399973</v>
+        <v>36.26331615898268</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>17.98166246812259</v>
+        <v>7.068834785918842</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.6374624571082</v>
+        <v>40.1179310182719</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.83543816699087</v>
+        <v>55.48054177534586</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>39.89931582194578</v>
+        <v>36.9170280114066</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.27970739690046</v>
+        <v>44.27326848430387</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>46.85747713433723</v>
+        <v>53.91542132138993</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.66788614625669</v>
+        <v>13.52442143220874</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>43.38925048880602</v>
+        <v>47.84013646384476</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>47.46595570024039</v>
+        <v>56.91860875620999</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.45210070543239</v>
+        <v>20.20618336205208</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.93304180126873</v>
+        <v>35.41893539547446</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.9574403024294</v>
+        <v>44.06071310514967</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>23.12716499446699</v>
+        <v>4.899271188232138</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>39.45934836001761</v>
+        <v>33.32671134128596</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>44.46418720444542</v>
+        <v>42.41116045674185</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.48776307856082</v>
+        <v>8.185876933487283</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.1390089758233</v>
+        <v>53.11465807135907</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.29204629611702</v>
+        <v>66.31829484434117</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.0696179024261</v>
+        <v>59.57705922031472</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>55.42665973849011</v>
+        <v>66.0214434949895</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>57.98808177486315</v>
+        <v>79.51124885682414</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>39.66371948145033</v>
+        <v>20.31144490126535</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>54.38522421833289</v>
+        <v>62.6305259705601</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>58.43719105018157</v>
+        <v>73.76402993294785</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-0.05988014409213349</v>
+        <v>9.693477939005721</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.33568387178953</v>
+        <v>19.97404185186769</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.55891549547963</v>
+        <v>25.09203912795913</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-0.2831373772782904</v>
+        <v>5.542094742092662</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>17.11427053755499</v>
+        <v>30.62343957898326</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.31691570959408</v>
+        <v>35.9231311443326</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>5.247718871786038</v>
+        <v>3.321783229862621</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>22.89353631529504</v>
+        <v>41.45118736751088</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.24400605057785</v>
+        <v>42.99521004045876</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.70521336779876</v>
+        <v>44.74540713967407</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>33.30946137571166</v>
+        <v>46.80440681786116</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>35.96214943879061</v>
+        <v>50.91070540875661</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.7034288846165</v>
+        <v>14.33191183685695</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>32.22854991311924</v>
+        <v>35.10013076953506</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>36.46294635508243</v>
+        <v>47.55221070564134</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>6.052349806527022</v>
+        <v>8.806359964524251</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.65696459112508</v>
+        <v>22.5720420958477</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.00133631519641</v>
+        <v>30.8501419382145</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>5.628274904982643</v>
+        <v>4.609637284297879</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>23.17156406817743</v>
+        <v>26.42803370076648</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.5146244398452</v>
+        <v>39.48841622134016</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>11.33351019095487</v>
+        <v>-1.641957726104334</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.18081574831822</v>
+        <v>36.52929730505268</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.66974453584869</v>
+        <v>51.94286257480708</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.8629780949814</v>
+        <v>35.62224600659921</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>39.55424332710441</v>
+        <v>42.57917568251885</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>42.27765942029947</v>
+        <v>50.45850006241885</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.91816451927796</v>
+        <v>9.989985032013823</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.67213918891488</v>
+        <v>46.97558324803801</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>42.97061566188808</v>
+        <v>57.70434325447924</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.3168917096128</v>
+        <v>11.07965336529539</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.90685614667974</v>
+        <v>28.36402990823693</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.21109650155738</v>
+        <v>36.59465067594404</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>16.91165693926852</v>
+        <v>2.611741758368385</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.4149914923674</v>
+        <v>32.19706079242924</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>39.69059078879229</v>
+        <v>42.62742585091196</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>22.70271316719791</v>
+        <v>-2.143705133143879</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>40.54429721791274</v>
+        <v>47.29547225740991</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>45.98748342630228</v>
+        <v>60.38684929762879</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>46.93947610552488</v>
+        <v>58.17016448116048</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>51.60749524404422</v>
+        <v>63.43576682381153</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>54.31499123415998</v>
+        <v>74.59544722575258</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.80812666166773</v>
+        <v>16.05064189830602</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>50.56228814930993</v>
+        <v>59.37420691901191</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>54.83521886166905</v>
+        <v>72.06922875995399</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>14.98623717650703</v>
+        <v>23.1508938622135</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.49451515005397</v>
+        <v>36.81845014095164</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.42279829437376</v>
+        <v>40.30627001961527</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>15.15866804335803</v>
+        <v>12.62498167551941</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>31.62784388995587</v>
+        <v>42.90186405402584</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>36.53327282870595</v>
+        <v>44.94317543832248</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>20.34560098618779</v>
+        <v>16.89883505468218</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>37.03906384981343</v>
+        <v>60.95363032345752</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>42.08320533652733</v>
+        <v>59.01154935826467</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>42.48755698957162</v>
+        <v>64.59439557917121</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>46.83086754752559</v>
+        <v>68.73371888211305</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>49.31162336120993</v>
+        <v>70.38637574744904</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>30.99970124304561</v>
+        <v>27.37192053873436</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>45.68572584068345</v>
+        <v>50.58586930329311</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>49.68379966131167</v>
+        <v>62.36357752751873</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.61018811575055</v>
+        <v>22.29782311736837</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.31867142986419</v>
+        <v>38.8029605116585</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>41.35940203161573</v>
+        <v>44.61822476400222</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>20.58143274506991</v>
+        <v>9.49153981111154</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.19053413737654</v>
+        <v>36.76969578620604</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>42.22743974033087</v>
+        <v>44.96568616461995</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>25.93499497205593</v>
+        <v>11.62077788996503</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>42.82198994141874</v>
+        <v>54.99290404306497</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>47.99472858748422</v>
+        <v>65.67853273146953</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>48.14489132172503</v>
+        <v>53.16581755262173</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>52.57076544168977</v>
+        <v>61.80393138035397</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>55.11717603747702</v>
+        <v>66.1197396520465</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>36.71458119077121</v>
+        <v>22.96501863400916</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>51.61831410475227</v>
+        <v>61.15588583127921</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>55.67467439416774</v>
+        <v>69.93982922243875</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.88051441595193</v>
+        <v>24.31172475284935</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>45.57261914829265</v>
+        <v>45.43004409214252</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>50.57506844864243</v>
+        <v>51.18896781639104</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>30.81795490177375</v>
+        <v>8.675586933351173</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>47.38876990316322</v>
+        <v>45.09923784671277</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>52.36069209444027</v>
+        <v>50.74645547619677</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>36.24329550237635</v>
+        <v>12.07495747767611</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>53.12191703115684</v>
+        <v>67.3807891784718</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>58.25105844193044</v>
+        <v>75.8719853382775</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>59.12363786770779</v>
+        <v>76.23750822205299</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>63.52586687671331</v>
+        <v>84.01906436072086</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>66.05731715125101</v>
+        <v>90.76448419343352</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>47.52222224326742</v>
+        <v>29.94413115672022</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>62.42407713863243</v>
+        <v>76.55810806914296</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>66.45634863728074</v>
+        <v>86.75126674719154</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>12.27396915625798</v>
+        <v>14.57843683126625</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.02774680172818</v>
+        <v>31.06642823406377</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>32.99189052363455</v>
+        <v>35.62236412674353</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>12.37547977569242</v>
+        <v>8.189879643641053</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.08650657879787</v>
+        <v>38.80949135792635</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.03252541043644</v>
+        <v>41.48374798394791</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>17.62593180954816</v>
+        <v>8.113586564740775</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>34.57010095206863</v>
+        <v>53.18922570249411</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>39.65490127804971</v>
+        <v>54.32529487967905</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>40.01564357296696</v>
+        <v>57.91841154996321</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>44.42604009669541</v>
+        <v>64.68753166291476</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>46.92877856152866</v>
+        <v>65.16201774910856</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.38116098978838</v>
+        <v>15.56767775274067</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>43.30080541051637</v>
+        <v>49.0156720074191</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>47.3093057499876</v>
+        <v>57.86820453807003</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>17.84422526857937</v>
+        <v>12.32572882399906</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.79690961282481</v>
+        <v>31.47896925391935</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>38.87397055822321</v>
+        <v>38.75916982000153</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>17.74618000811103</v>
+        <v>2.672376334922337</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.59551189219787</v>
+        <v>30.86587694077189</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>39.67304168295318</v>
+        <v>39.86162856834768</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>23.16298808259385</v>
+        <v>1.536426707235893</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>40.29932951907604</v>
+        <v>45.85116057602237</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>45.51346402388585</v>
+        <v>59.93476705567572</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>45.62154172041308</v>
+        <v>45.72551464747711</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>50.11407080710721</v>
+        <v>56.74484148309564</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>52.68336883942658</v>
+        <v>61.13178732043458</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.04745185026286</v>
+        <v>10.12852762701356</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>49.18291551631491</v>
+        <v>57.16813893561611</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>53.25183699738376</v>
+        <v>64.6339169366944</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>27.20263538725707</v>
+        <v>10.67887961157463</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>43.13606430121152</v>
+        <v>34.49872169357367</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>48.17735405694465</v>
+        <v>41.91421512632421</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.06739727609017</v>
+        <v>-2.517859492776932</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>44.87479947255656</v>
+        <v>35.3263553407224</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>49.89007555551555</v>
+        <v>41.71818515310876</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>33.55852121638268</v>
+        <v>-2.50917429489358</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>50.68349476854218</v>
+        <v>53.89504960602069</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>55.85653075795624</v>
+        <v>66.01094825693242</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>56.6894161892742</v>
+        <v>63.64916026771421</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>61.15903305794545</v>
+        <v>74.49806003882357</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>63.71425792907078</v>
+        <v>81.90236678852035</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>44.94512606207454</v>
+        <v>11.76470245619659</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>60.07629828930449</v>
+        <v>67.8111989017472</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>64.12360477839215</v>
+        <v>76.61460633306409</v>
       </c>
     </row>
   </sheetData>
